--- a/global_data/day_data/605268.xlsx
+++ b/global_data/day_data/605268.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1014"/>
+  <dimension ref="A1:I1016"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29814,6 +29816,64 @@
         <v>0.005371604539754273</v>
       </c>
     </row>
+    <row r="1015" spans="1:9">
+      <c r="A1015" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B1015">
+        <v>8</v>
+      </c>
+      <c r="C1015">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="D1015">
+        <v>7.86</v>
+      </c>
+      <c r="E1015">
+        <v>8.06</v>
+      </c>
+      <c r="F1015">
+        <v>3252100</v>
+      </c>
+      <c r="G1015">
+        <v>26204181</v>
+      </c>
+      <c r="H1015">
+        <v>437578750</v>
+      </c>
+      <c r="I1015">
+        <v>0.007432033662512176</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9">
+      <c r="A1016" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B1016">
+        <v>8.1</v>
+      </c>
+      <c r="C1016">
+        <v>8.24</v>
+      </c>
+      <c r="D1016">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E1016">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="F1016">
+        <v>2666500</v>
+      </c>
+      <c r="G1016">
+        <v>21731809</v>
+      </c>
+      <c r="H1016">
+        <v>437578750</v>
+      </c>
+      <c r="I1016">
+        <v>0.006093760266009261</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
